--- a/data/trans_camb/P2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P2_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,87</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
           <t>-0,3</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,7</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,56</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-3,01</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-1,46</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-1,72</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 1,88</t>
+          <t>-6,83; 1,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,17</t>
+          <t>-4,52; 3,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 2,45</t>
+          <t>-6,64; 2,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 4,19</t>
+          <t>-1,46; 4,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 0,93</t>
+          <t>-3,54; 2,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 0,97</t>
+          <t>-3,2; 1,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 0,14</t>
+          <t>-3,97; 1,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,55</t>
+          <t>-3,63; 1,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 0,52</t>
+          <t>-6,42; 0,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 1,34</t>
+          <t>-2,86; 2,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 0,5</t>
+          <t>-2,55; 2,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,52</t>
+          <t>-2,25; 2,18</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 0,67</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 1,7</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 0,91</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 2,65</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 1,91</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 1,33</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,28%</t>
+          <t>-1,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>-0,49%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-0,59%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-0,65%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-1,36%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-0,95%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-1,97%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-0,09%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-0,17%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-1,35%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
           <t>-0,32%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,58%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-1,79%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-1,64%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-3,17%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,3%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-1,55%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-0,6%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-1,82%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>0,91%</t>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-1,27%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-0,34%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>-0,41%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 2,02</t>
+          <t>-7,37; 1,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 3,41</t>
+          <t>-4,79; 3,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 2,63</t>
+          <t>-6,97; 2,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,54</t>
+          <t>-1,54; 4,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 1,01</t>
+          <t>-3,67; 2,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 1,03</t>
+          <t>-3,32; 2,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 0,13</t>
+          <t>-4,16; 1,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 2,73</t>
+          <t>-3,78; 1,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 0,55</t>
+          <t>-6,73; 0,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,43</t>
+          <t>-2,98; 3,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 0,53</t>
+          <t>-2,63; 3,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,69</t>
+          <t>-2,36; 2,33</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-4,5; 0,69</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 1,82</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-4,66; 0,97</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 2,82</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 2,05</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 1,42</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,47</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>-2,33</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
-        </is>
-      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-2,21</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-0,97</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 1,11</t>
+          <t>-2,0; 2,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 1,0</t>
+          <t>-3,42; 1,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 0,2</t>
+          <t>-4,41; 0,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,07; -0,14</t>
+          <t>-3,86; 1,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 2,43</t>
+          <t>-6,25; 1,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 1,41</t>
+          <t>-3,95; 5,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 0,96</t>
+          <t>-3,51; 2,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 3,48</t>
+          <t>-4,65; 1,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 1,02</t>
+          <t>-5,61; 1,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 0,54</t>
+          <t>-4,22; 2,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; -0,31</t>
+          <t>-3,69; 4,27</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 0,91</t>
+          <t>-5,1; 3,16</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 1,66</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 0,54</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,27; -0,17</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 1,15</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 1,71</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 2,67</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,34%</t>
+          <t>-1,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,42%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,08%</t>
+          <t>-0,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,5%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,63%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>-0,76%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-1,54%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>-2,44%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,56%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-1,03%</t>
-        </is>
-      </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>-1,09%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-2,42%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-1,32%</t>
+          <t>-1,17%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-0,38%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-1,33%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-2,3%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-1,0%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-0,79%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-0,48%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 1,16</t>
+          <t>-2,05; 2,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 1,04</t>
+          <t>-3,49; 1,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 0,21</t>
+          <t>-4,53; 0,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,24; -0,15</t>
+          <t>-3,97; 1,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 2,62</t>
+          <t>-6,51; 1,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 1,5</t>
+          <t>-4,14; 5,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 1,03</t>
+          <t>-3,64; 2,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 3,73</t>
+          <t>-4,83; 1,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 1,07</t>
+          <t>-5,81; 1,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 0,54</t>
+          <t>-4,34; 2,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-4,81; -0,33</t>
+          <t>-3,83; 4,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,97</t>
+          <t>-5,28; 3,34</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 1,74</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 0,56</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; -0,18</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; 1,21</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 1,81</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 2,84</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>3,09</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-4,92</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,66</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-8,55</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-4,6</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-8,74</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-1,34</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-2,34</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-4,32</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-1,95</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-4,4</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 7,62</t>
+          <t>-2,17; 9,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 5,82</t>
+          <t>-5,11; 7,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 5,56</t>
+          <t>-6,96; 5,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-2,33; 8,97</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-14,41; 1,42</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 0,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,47; -1,86</t>
+          <t>-9,65; 2,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-10,45; 1,09</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-15,84; -2,2</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 5,58</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-7,52; 2,98</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-6,86; 1,5</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-8,99; 0,12</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,45; 3,78</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; 2,32</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-9,26; -0,2</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 5,84</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,09%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,21%</t>
+          <t>-0,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-5,22%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-9,06%</t>
+          <t>-3,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>-4,88%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-9,26%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-1,43%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-2,5%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-4,61%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-0,11%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-2,08%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-4,7%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 8,41</t>
+          <t>-2,26; 10,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 6,38</t>
+          <t>-5,33; 7,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 6,16</t>
+          <t>-7,27; 6,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-2,49; 10,07</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-14,97; 1,53</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 0,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,28; -2,07</t>
+          <t>-10,16; 2,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-11,13; 1,17</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-16,6; -2,43</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; 6,07</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-7,92; 3,22</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-7,18; 1,61</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-9,61; 0,04</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 4,15</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-5,95; 2,54</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-9,77; -0,27</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 6,37</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 1,11</t>
+          <t>-3,42; 1,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 1,71</t>
+          <t>-2,79; 1,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 0,79</t>
+          <t>-3,78; 0,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,96</t>
+          <t>-1,14; 2,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,41</t>
+          <t>-3,28; 0,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,03</t>
+          <t>-2,66; 1,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,62; -1,11</t>
+          <t>-3,17; 0,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,07</t>
+          <t>-3,62; 0,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 0,17</t>
+          <t>-5,37; -0,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,33</t>
+          <t>-2,06; 1,74</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-4,51; -0,73</t>
+          <t>-1,77; 2,37</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,46</t>
+          <t>-2,22; 1,55</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 0,42</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 0,36</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-4,03; -0,62</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 1,52</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 0,84</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 1,06</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,98%</t>
+          <t>-0,26%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,17%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,02%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,68%</t>
+          <t>-1,2%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,02%</t>
+          <t>-0,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,56%</t>
+          <t>-1,37%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>-1,62%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,34%</t>
+          <t>-2,98%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-2,39%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>-0,39%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-0,83%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-0,94%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-2,09%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-0,52%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-0,42%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 1,16</t>
+          <t>-3,58; 1,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,83</t>
+          <t>-2,96; 1,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 0,84</t>
+          <t>-3,98; 0,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 2,08</t>
+          <t>-1,2; 2,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 0,44</t>
+          <t>-3,4; 0,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 0,01</t>
+          <t>-2,76; 1,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,91; -1,17</t>
+          <t>-3,32; 0,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,2</t>
+          <t>-3,79; 0,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,17</t>
+          <t>-5,64; -0,91</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 0,37</t>
+          <t>-2,15; 1,83</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-4,76; -0,79</t>
+          <t>-1,85; 2,52</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,55</t>
+          <t>-2,31; 1,63</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 0,45</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 0,39</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; -0,66</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 1,61</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 0,89</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 1,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
